--- a/jpcore-r4/feature/Observationリソースカテゴリ変更/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/Observationリソースカテゴリ変更/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-11T05:54:10+00:00</t>
+    <t>2023-11-11T07:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
